--- a/Panels/parameter_estimates_Omega_Abundance_year.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_year.xlsx
@@ -431,37 +431,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.6554659172849649</v>
+        <v>-0.49140043533939</v>
       </c>
       <c r="D2">
-        <v>-0.8148813931714403</v>
+        <v>-0.7997642541265038</v>
       </c>
       <c r="E2">
-        <v>-0.8223407785891733</v>
+        <v>-0.8206483095871268</v>
       </c>
       <c r="F2">
-        <v>-0.417305462821434</v>
+        <v>-0.3442825030917555</v>
       </c>
       <c r="G2">
-        <v>-0.6959067415531791</v>
+        <v>-0.6755872914676799</v>
       </c>
       <c r="H2">
-        <v>-0.8208291986349961</v>
+        <v>-0.8061194045143951</v>
       </c>
       <c r="I2">
-        <v>-0.4829233146329727</v>
+        <v>-0.4622597767012113</v>
       </c>
       <c r="J2">
-        <v>-0.1945694789168196</v>
+        <v>-0.1958741043508663</v>
       </c>
       <c r="K2">
-        <v>-0.3421919531450592</v>
+        <v>-0.2727279655791058</v>
       </c>
       <c r="L2">
-        <v>0.1990115011287348</v>
+        <v>0.200459520130608</v>
       </c>
       <c r="M2">
-        <v>-0.8283325463055254</v>
+        <v>-0.7365968399799289</v>
       </c>
     </row>
     <row r="3">
@@ -471,40 +471,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.6554659172849649</v>
+        <v>-0.49140043533939</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7698100693858346</v>
+        <v>0.633631974797373</v>
       </c>
       <c r="E3">
-        <v>0.6284649153739048</v>
+        <v>0.4909245962882581</v>
       </c>
       <c r="F3">
-        <v>0.6116748328438383</v>
+        <v>0.5347378990608032</v>
       </c>
       <c r="G3">
-        <v>0.7910719005918069</v>
+        <v>0.6966241224194505</v>
       </c>
       <c r="H3">
-        <v>0.7664686185790518</v>
+        <v>0.6257441245420285</v>
       </c>
       <c r="I3">
-        <v>0.6606774689676264</v>
+        <v>0.5978091670819844</v>
       </c>
       <c r="J3">
-        <v>0.3685701442127357</v>
+        <v>0.367936686628241</v>
       </c>
       <c r="K3">
-        <v>0.3032143261973972</v>
+        <v>0.1981121834566008</v>
       </c>
       <c r="L3">
-        <v>-0.03341802135251312</v>
+        <v>0.01638312656337109</v>
       </c>
       <c r="M3">
-        <v>0.752644639780476</v>
+        <v>0.6734294713048488</v>
       </c>
     </row>
     <row r="4">
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.8148813931714403</v>
+        <v>-0.7997642541265038</v>
       </c>
       <c r="C4">
-        <v>0.7698100693858346</v>
+        <v>0.633631974797373</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8521061624980149</v>
+        <v>0.8657763548452646</v>
       </c>
       <c r="F4">
-        <v>0.6596605527627263</v>
+        <v>0.5853457934066713</v>
       </c>
       <c r="G4">
-        <v>0.8980386460415323</v>
+        <v>0.8789655368041299</v>
       </c>
       <c r="H4">
-        <v>0.9975777375559592</v>
+        <v>0.9975075667717772</v>
       </c>
       <c r="I4">
-        <v>0.7158279934950706</v>
+        <v>0.6899436301868895</v>
       </c>
       <c r="J4">
-        <v>0.3808218798798609</v>
+        <v>0.3775471292142287</v>
       </c>
       <c r="K4">
-        <v>0.3678369092822543</v>
+        <v>0.2866524564229284</v>
       </c>
       <c r="L4">
-        <v>-0.0787052224478372</v>
+        <v>-0.09393857860515666</v>
       </c>
       <c r="M4">
-        <v>0.9657474510472072</v>
+        <v>0.9209543843751962</v>
       </c>
     </row>
     <row r="5">
@@ -557,40 +557,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.8223407785891733</v>
+        <v>-0.8206483095871268</v>
       </c>
       <c r="C5">
-        <v>0.6284649153739048</v>
+        <v>0.4909245962882581</v>
       </c>
       <c r="D5">
-        <v>0.8521061624980149</v>
+        <v>0.8657763548452646</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2741057445414971</v>
+        <v>0.2158915863641953</v>
       </c>
       <c r="G5">
-        <v>0.6786612333696421</v>
+        <v>0.6737927938227366</v>
       </c>
       <c r="H5">
-        <v>0.8627523986613398</v>
+        <v>0.8746474862674289</v>
       </c>
       <c r="I5">
-        <v>0.3770070434460906</v>
+        <v>0.3818787843660253</v>
       </c>
       <c r="J5">
-        <v>0.1301276254711494</v>
+        <v>0.1399592825917317</v>
       </c>
       <c r="K5">
-        <v>0.3428104758987168</v>
+        <v>0.2869606147580508</v>
       </c>
       <c r="L5">
-        <v>-0.2055640897582708</v>
+        <v>-0.221298315099816</v>
       </c>
       <c r="M5">
-        <v>0.8550252396691768</v>
+        <v>0.7784781961892289</v>
       </c>
     </row>
     <row r="6">
@@ -600,40 +600,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.417305462821434</v>
+        <v>-0.3442825030917555</v>
       </c>
       <c r="C6">
-        <v>0.6116748328438383</v>
+        <v>0.5347378990608032</v>
       </c>
       <c r="D6">
-        <v>0.6596605527627263</v>
+        <v>0.5853457934066713</v>
       </c>
       <c r="E6">
-        <v>0.2741057445414971</v>
+        <v>0.2158915863641953</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7919768756753501</v>
+        <v>0.7463595442535067</v>
       </c>
       <c r="H6">
-        <v>0.6398219073892821</v>
+        <v>0.5677451094252198</v>
       </c>
       <c r="I6">
-        <v>0.903790038179686</v>
+        <v>0.8857979565169948</v>
       </c>
       <c r="J6">
-        <v>0.5683367589744882</v>
+        <v>0.5680329442337095</v>
       </c>
       <c r="K6">
-        <v>0.232807208335866</v>
+        <v>0.1376996001907283</v>
       </c>
       <c r="L6">
-        <v>0.1356429974594547</v>
+        <v>0.1608548349944636</v>
       </c>
       <c r="M6">
-        <v>0.6128697806999953</v>
+        <v>0.619177195407188</v>
       </c>
     </row>
     <row r="7">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.6959067415531791</v>
+        <v>-0.6755872914676799</v>
       </c>
       <c r="C7">
-        <v>0.7910719005918069</v>
+        <v>0.6966241224194505</v>
       </c>
       <c r="D7">
-        <v>0.8980386460415323</v>
+        <v>0.8789655368041299</v>
       </c>
       <c r="E7">
-        <v>0.6786612333696421</v>
+        <v>0.6737927938227366</v>
       </c>
       <c r="F7">
-        <v>0.7919768756753501</v>
+        <v>0.7463595442535067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.8907031688950152</v>
+        <v>0.8688983785236081</v>
       </c>
       <c r="I7">
-        <v>0.8399595856812136</v>
+        <v>0.8343740705772256</v>
       </c>
       <c r="J7">
-        <v>0.4960289969799044</v>
+        <v>0.507918638109366</v>
       </c>
       <c r="K7">
-        <v>0.3454150408167673</v>
+        <v>0.2609492386575604</v>
       </c>
       <c r="L7">
-        <v>0.02034808157720122</v>
+        <v>0.02148188021592801</v>
       </c>
       <c r="M7">
-        <v>0.8662690686364984</v>
+        <v>0.9329719601552322</v>
       </c>
     </row>
     <row r="8">
@@ -686,40 +686,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.8208291986349961</v>
+        <v>-0.8061194045143951</v>
       </c>
       <c r="C8">
-        <v>0.7664686185790518</v>
+        <v>0.6257441245420285</v>
       </c>
       <c r="D8">
-        <v>0.9975777375559592</v>
+        <v>0.9975075667717772</v>
       </c>
       <c r="E8">
-        <v>0.8627523986613398</v>
+        <v>0.8746474862674289</v>
       </c>
       <c r="F8">
-        <v>0.6398219073892821</v>
+        <v>0.5677451094252198</v>
       </c>
       <c r="G8">
-        <v>0.8907031688950152</v>
+        <v>0.8688983785236081</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.6995517095269456</v>
+        <v>0.6746978651626455</v>
       </c>
       <c r="J8">
-        <v>0.3674032941435433</v>
+        <v>0.3639545243475186</v>
       </c>
       <c r="K8">
-        <v>0.3681109315678276</v>
+        <v>0.2881234356303738</v>
       </c>
       <c r="L8">
-        <v>-0.08641501138078904</v>
+        <v>-0.1034214358551055</v>
       </c>
       <c r="M8">
-        <v>0.9669557486028275</v>
+        <v>0.9160401918518573</v>
       </c>
     </row>
     <row r="9">
@@ -729,40 +729,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.4829233146329727</v>
+        <v>-0.4622597767012113</v>
       </c>
       <c r="C9">
-        <v>0.6606774689676264</v>
+        <v>0.5978091670819844</v>
       </c>
       <c r="D9">
-        <v>0.7158279934950706</v>
+        <v>0.6899436301868895</v>
       </c>
       <c r="E9">
-        <v>0.3770070434460906</v>
+        <v>0.3818787843660253</v>
       </c>
       <c r="F9">
-        <v>0.903790038179686</v>
+        <v>0.8857979565169948</v>
       </c>
       <c r="G9">
-        <v>0.8399595856812136</v>
+        <v>0.8343740705772256</v>
       </c>
       <c r="H9">
-        <v>0.6995517095269456</v>
+        <v>0.6746978651626455</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.5580306666784476</v>
+        <v>0.5604356004376135</v>
       </c>
       <c r="K9">
-        <v>0.2586201895257226</v>
+        <v>0.1858880121523191</v>
       </c>
       <c r="L9">
-        <v>0.1118491869103093</v>
+        <v>0.1215624509034098</v>
       </c>
       <c r="M9">
-        <v>0.6724267764086401</v>
+        <v>0.7305792375421298</v>
       </c>
     </row>
     <row r="10">
@@ -772,40 +772,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.1945694789168196</v>
+        <v>-0.1958741043508663</v>
       </c>
       <c r="C10">
-        <v>0.3685701442127357</v>
+        <v>0.367936686628241</v>
       </c>
       <c r="D10">
-        <v>0.3808218798798609</v>
+        <v>0.3775471292142287</v>
       </c>
       <c r="E10">
-        <v>0.1301276254711494</v>
+        <v>0.1399592825917317</v>
       </c>
       <c r="F10">
-        <v>0.5683367589744882</v>
+        <v>0.5680329442337095</v>
       </c>
       <c r="G10">
-        <v>0.4960289969799044</v>
+        <v>0.507918638109366</v>
       </c>
       <c r="H10">
-        <v>0.3674032941435433</v>
+        <v>0.3639545243475186</v>
       </c>
       <c r="I10">
-        <v>0.5580306666784476</v>
+        <v>0.5604356004376135</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.1493348243382686</v>
+        <v>0.1095345970178467</v>
       </c>
       <c r="L10">
-        <v>0.1458938792822771</v>
+        <v>0.1558609204711422</v>
       </c>
       <c r="M10">
-        <v>0.3464461387732128</v>
+        <v>0.4292212589197415</v>
       </c>
     </row>
     <row r="11">
@@ -815,40 +815,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.3421919531450592</v>
+        <v>-0.2727279655791058</v>
       </c>
       <c r="C11">
-        <v>0.3032143261973972</v>
+        <v>0.1981121834566008</v>
       </c>
       <c r="D11">
-        <v>0.3678369092822543</v>
+        <v>0.2866524564229284</v>
       </c>
       <c r="E11">
-        <v>0.3428104758987168</v>
+        <v>0.2869606147580508</v>
       </c>
       <c r="F11">
-        <v>0.232807208335866</v>
+        <v>0.1376996001907283</v>
       </c>
       <c r="G11">
-        <v>0.3454150408167673</v>
+        <v>0.2609492386575604</v>
       </c>
       <c r="H11">
-        <v>0.3681109315678276</v>
+        <v>0.2881234356303738</v>
       </c>
       <c r="I11">
-        <v>0.2586201895257226</v>
+        <v>0.1858880121523191</v>
       </c>
       <c r="J11">
-        <v>0.1493348243382686</v>
+        <v>0.1095345970178467</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.02143205451979842</v>
+        <v>-0.02389876597373879</v>
       </c>
       <c r="M11">
-        <v>0.3710097573994335</v>
+        <v>0.2764023456118498</v>
       </c>
     </row>
     <row r="12">
@@ -858,40 +858,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.1990115011287348</v>
+        <v>0.200459520130608</v>
       </c>
       <c r="C12">
-        <v>-0.03341802135251312</v>
+        <v>0.01638312656337109</v>
       </c>
       <c r="D12">
-        <v>-0.0787052224478372</v>
+        <v>-0.09393857860515666</v>
       </c>
       <c r="E12">
-        <v>-0.2055640897582708</v>
+        <v>-0.221298315099816</v>
       </c>
       <c r="F12">
-        <v>0.1356429974594547</v>
+        <v>0.1608548349944636</v>
       </c>
       <c r="G12">
-        <v>0.02034808157720122</v>
+        <v>0.02148188021592801</v>
       </c>
       <c r="H12">
-        <v>-0.08641501138078904</v>
+        <v>-0.1034214358551055</v>
       </c>
       <c r="I12">
-        <v>0.1118491869103093</v>
+        <v>0.1215624509034098</v>
       </c>
       <c r="J12">
-        <v>0.1458938792822771</v>
+        <v>0.1558609204711422</v>
       </c>
       <c r="K12">
-        <v>-0.02143205451979842</v>
+        <v>-0.02389876597373879</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.1013428623668063</v>
+        <v>-0.0397879275596625</v>
       </c>
     </row>
     <row r="13">
@@ -901,37 +901,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.8283325463055254</v>
+        <v>-0.7365968399799289</v>
       </c>
       <c r="C13">
-        <v>0.752644639780476</v>
+        <v>0.6734294713048488</v>
       </c>
       <c r="D13">
-        <v>0.9657474510472072</v>
+        <v>0.9209543843751962</v>
       </c>
       <c r="E13">
-        <v>0.8550252396691768</v>
+        <v>0.7784781961892289</v>
       </c>
       <c r="F13">
-        <v>0.6128697806999953</v>
+        <v>0.619177195407188</v>
       </c>
       <c r="G13">
-        <v>0.8662690686364984</v>
+        <v>0.9329719601552322</v>
       </c>
       <c r="H13">
-        <v>0.9669557486028275</v>
+        <v>0.9160401918518573</v>
       </c>
       <c r="I13">
-        <v>0.6724267764086401</v>
+        <v>0.7305792375421298</v>
       </c>
       <c r="J13">
-        <v>0.3464461387732127</v>
+        <v>0.4292212589197415</v>
       </c>
       <c r="K13">
-        <v>0.3710097573994335</v>
+        <v>0.2764023456118498</v>
       </c>
       <c r="L13">
-        <v>-0.1013428623668063</v>
+        <v>-0.0397879275596625</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1022,37 +1022,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.156</v>
+        <v>0.2374375</v>
       </c>
       <c r="D2">
-        <v>0.08809375</v>
+        <v>0.09193750000000001</v>
       </c>
       <c r="E2">
-        <v>0.03171875</v>
+        <v>0.04259375</v>
       </c>
       <c r="F2">
-        <v>0.16546875</v>
+        <v>0.19378125</v>
       </c>
       <c r="G2">
-        <v>0.13459375</v>
+        <v>0.14053125</v>
       </c>
       <c r="H2">
-        <v>0.0823125</v>
+        <v>0.08328125</v>
       </c>
       <c r="I2">
-        <v>0.1729375</v>
+        <v>0.18790625</v>
       </c>
       <c r="J2">
-        <v>0.39146875</v>
+        <v>0.3901875</v>
       </c>
       <c r="K2">
-        <v>0.31753125</v>
+        <v>0.3541875</v>
       </c>
       <c r="L2">
-        <v>0.60834375</v>
+        <v>0.60728125</v>
       </c>
       <c r="M2">
-        <v>0.06175</v>
+        <v>0.11971875</v>
       </c>
     </row>
     <row r="3">
@@ -1062,40 +1062,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.156</v>
+        <v>0.2374375</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.90265625</v>
+        <v>0.8405625</v>
       </c>
       <c r="E3">
-        <v>0.86115625</v>
+        <v>0.77609375</v>
       </c>
       <c r="F3">
-        <v>0.90409375</v>
+        <v>0.8593125</v>
       </c>
       <c r="G3">
-        <v>0.9110625</v>
+        <v>0.8659375</v>
       </c>
       <c r="H3">
-        <v>0.899625</v>
+        <v>0.8306249999999999</v>
       </c>
       <c r="I3">
-        <v>0.89990625</v>
+        <v>0.85615625</v>
       </c>
       <c r="J3">
-        <v>0.70790625</v>
+        <v>0.70665625</v>
       </c>
       <c r="K3">
-        <v>0.661125</v>
+        <v>0.6058750000000001</v>
       </c>
       <c r="L3">
-        <v>0.480625</v>
+        <v>0.5083124999999999</v>
       </c>
       <c r="M3">
-        <v>0.885875</v>
+        <v>0.85453125</v>
       </c>
     </row>
     <row r="4">
@@ -1105,40 +1105,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08809375</v>
+        <v>0.09193750000000001</v>
       </c>
       <c r="C4">
-        <v>0.90265625</v>
+        <v>0.8405625</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.98921875</v>
+        <v>0.98784375</v>
       </c>
       <c r="F4">
-        <v>0.98221875</v>
+        <v>0.97440625</v>
       </c>
       <c r="G4">
-        <v>0.98915625</v>
+        <v>0.98371875</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.970625</v>
+        <v>0.95696875</v>
       </c>
       <c r="J4">
-        <v>0.7361875</v>
+        <v>0.7376875000000001</v>
       </c>
       <c r="K4">
-        <v>0.69465625</v>
+        <v>0.6464375</v>
       </c>
       <c r="L4">
-        <v>0.47853125</v>
+        <v>0.47153125</v>
       </c>
       <c r="M4">
-        <v>0.99553125</v>
+        <v>0.98825</v>
       </c>
     </row>
     <row r="5">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.03171875</v>
+        <v>0.04259375</v>
       </c>
       <c r="C5">
-        <v>0.86115625</v>
+        <v>0.77609375</v>
       </c>
       <c r="D5">
-        <v>0.98921875</v>
+        <v>0.98784375</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.74909375</v>
+        <v>0.7125312499999999</v>
       </c>
       <c r="G5">
-        <v>0.88709375</v>
+        <v>0.8783125000000001</v>
       </c>
       <c r="H5">
-        <v>0.9903125</v>
+        <v>0.99075</v>
       </c>
       <c r="I5">
-        <v>0.78346875</v>
+        <v>0.781125</v>
       </c>
       <c r="J5">
-        <v>0.56240625</v>
+        <v>0.56659375</v>
       </c>
       <c r="K5">
-        <v>0.6955</v>
+        <v>0.6579375</v>
       </c>
       <c r="L5">
-        <v>0.37409375</v>
+        <v>0.3648125</v>
       </c>
       <c r="M5">
-        <v>0.978</v>
+        <v>0.9174375</v>
       </c>
     </row>
     <row r="6">
@@ -1191,40 +1191,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.16546875</v>
+        <v>0.19378125</v>
       </c>
       <c r="C6">
-        <v>0.90409375</v>
+        <v>0.8593125</v>
       </c>
       <c r="D6">
-        <v>0.98221875</v>
+        <v>0.97440625</v>
       </c>
       <c r="E6">
-        <v>0.74909375</v>
+        <v>0.7125312499999999</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.99540625</v>
+        <v>0.9931875</v>
       </c>
       <c r="H6">
-        <v>0.97046875</v>
+        <v>0.9488124999999999</v>
       </c>
       <c r="I6">
-        <v>0.99821875</v>
+        <v>0.99803125</v>
       </c>
       <c r="J6">
-        <v>0.8479375</v>
+        <v>0.8558125</v>
       </c>
       <c r="K6">
-        <v>0.66665625</v>
+        <v>0.61525</v>
       </c>
       <c r="L6">
-        <v>0.5544375</v>
+        <v>0.56534375</v>
       </c>
       <c r="M6">
-        <v>0.917875</v>
+        <v>0.9660625</v>
       </c>
     </row>
     <row r="7">
@@ -1234,40 +1234,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.13459375</v>
+        <v>0.14053125</v>
       </c>
       <c r="C7">
-        <v>0.9110625</v>
+        <v>0.8659375</v>
       </c>
       <c r="D7">
-        <v>0.98915625</v>
+        <v>0.98371875</v>
       </c>
       <c r="E7">
-        <v>0.88709375</v>
+        <v>0.8783125000000001</v>
       </c>
       <c r="F7">
-        <v>0.99540625</v>
+        <v>0.9931875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.98253125</v>
+        <v>0.96553125</v>
       </c>
       <c r="I7">
-        <v>0.98975</v>
+        <v>0.9859375</v>
       </c>
       <c r="J7">
-        <v>0.77490625</v>
+        <v>0.7826875</v>
       </c>
       <c r="K7">
-        <v>0.68453125</v>
+        <v>0.64025</v>
       </c>
       <c r="L7">
-        <v>0.50628125</v>
+        <v>0.5070625</v>
       </c>
       <c r="M7">
-        <v>0.9385625</v>
+        <v>0.98796875</v>
       </c>
     </row>
     <row r="8">
@@ -1277,40 +1277,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.0823125</v>
+        <v>0.08328125</v>
       </c>
       <c r="C8">
-        <v>0.899625</v>
+        <v>0.8306249999999999</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.9903125</v>
+        <v>0.99075</v>
       </c>
       <c r="F8">
-        <v>0.97046875</v>
+        <v>0.9488124999999999</v>
       </c>
       <c r="G8">
-        <v>0.98253125</v>
+        <v>0.96553125</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.960875</v>
+        <v>0.93378125</v>
       </c>
       <c r="J8">
-        <v>0.7231875</v>
+        <v>0.71371875</v>
       </c>
       <c r="K8">
-        <v>0.69353125</v>
+        <v>0.6483125</v>
       </c>
       <c r="L8">
-        <v>0.4688125</v>
+        <v>0.454125</v>
       </c>
       <c r="M8">
-        <v>0.99465625</v>
+        <v>0.97915625</v>
       </c>
     </row>
     <row r="9">
@@ -1320,40 +1320,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1729375</v>
+        <v>0.18790625</v>
       </c>
       <c r="C9">
-        <v>0.89990625</v>
+        <v>0.85615625</v>
       </c>
       <c r="D9">
-        <v>0.970625</v>
+        <v>0.95696875</v>
       </c>
       <c r="E9">
-        <v>0.78346875</v>
+        <v>0.781125</v>
       </c>
       <c r="F9">
-        <v>0.99821875</v>
+        <v>0.99803125</v>
       </c>
       <c r="G9">
-        <v>0.98975</v>
+        <v>0.9859375</v>
       </c>
       <c r="H9">
-        <v>0.960875</v>
+        <v>0.93378125</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.831125</v>
+        <v>0.83190625</v>
       </c>
       <c r="K9">
-        <v>0.66684375</v>
+        <v>0.6234062500000001</v>
       </c>
       <c r="L9">
-        <v>0.5481875</v>
+        <v>0.553375</v>
       </c>
       <c r="M9">
-        <v>0.9113125</v>
+        <v>0.95490625</v>
       </c>
     </row>
     <row r="10">
@@ -1363,40 +1363,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.39146875</v>
+        <v>0.3901875</v>
       </c>
       <c r="C10">
-        <v>0.70790625</v>
+        <v>0.70665625</v>
       </c>
       <c r="D10">
-        <v>0.7361875</v>
+        <v>0.7376875000000001</v>
       </c>
       <c r="E10">
-        <v>0.56240625</v>
+        <v>0.56659375</v>
       </c>
       <c r="F10">
-        <v>0.8479375</v>
+        <v>0.8558125</v>
       </c>
       <c r="G10">
-        <v>0.77490625</v>
+        <v>0.7826875</v>
       </c>
       <c r="H10">
-        <v>0.7231875</v>
+        <v>0.71371875</v>
       </c>
       <c r="I10">
-        <v>0.831125</v>
+        <v>0.83190625</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.585625</v>
+        <v>0.561875</v>
       </c>
       <c r="L10">
-        <v>0.584</v>
+        <v>0.58790625</v>
       </c>
       <c r="M10">
-        <v>0.67865625</v>
+        <v>0.73934375</v>
       </c>
     </row>
     <row r="11">
@@ -1406,40 +1406,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.31753125</v>
+        <v>0.3541875</v>
       </c>
       <c r="C11">
-        <v>0.661125</v>
+        <v>0.6058750000000001</v>
       </c>
       <c r="D11">
-        <v>0.69465625</v>
+        <v>0.6464375</v>
       </c>
       <c r="E11">
-        <v>0.6955</v>
+        <v>0.6579375</v>
       </c>
       <c r="F11">
-        <v>0.66665625</v>
+        <v>0.61525</v>
       </c>
       <c r="G11">
-        <v>0.68453125</v>
+        <v>0.64025</v>
       </c>
       <c r="H11">
-        <v>0.69353125</v>
+        <v>0.6483125</v>
       </c>
       <c r="I11">
-        <v>0.66684375</v>
+        <v>0.6234062500000001</v>
       </c>
       <c r="J11">
-        <v>0.585625</v>
+        <v>0.561875</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.48796875</v>
+        <v>0.48721875</v>
       </c>
       <c r="M11">
-        <v>0.696375</v>
+        <v>0.64396875</v>
       </c>
     </row>
     <row r="12">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.60834375</v>
+        <v>0.60728125</v>
       </c>
       <c r="C12">
-        <v>0.480625</v>
+        <v>0.5083124999999999</v>
       </c>
       <c r="D12">
-        <v>0.47853125</v>
+        <v>0.47153125</v>
       </c>
       <c r="E12">
-        <v>0.37409375</v>
+        <v>0.3648125</v>
       </c>
       <c r="F12">
-        <v>0.5544375</v>
+        <v>0.56534375</v>
       </c>
       <c r="G12">
-        <v>0.50628125</v>
+        <v>0.5070625</v>
       </c>
       <c r="H12">
-        <v>0.4688125</v>
+        <v>0.454125</v>
       </c>
       <c r="I12">
-        <v>0.5481875</v>
+        <v>0.553375</v>
       </c>
       <c r="J12">
-        <v>0.584</v>
+        <v>0.58790625</v>
       </c>
       <c r="K12">
-        <v>0.48796875</v>
+        <v>0.48721875</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.434375</v>
+        <v>0.48128125</v>
       </c>
     </row>
     <row r="13">
@@ -1492,37 +1492,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.06175</v>
+        <v>0.11971875</v>
       </c>
       <c r="C13">
-        <v>0.885875</v>
+        <v>0.85453125</v>
       </c>
       <c r="D13">
-        <v>0.99553125</v>
+        <v>0.98825</v>
       </c>
       <c r="E13">
-        <v>0.978</v>
+        <v>0.9174375</v>
       </c>
       <c r="F13">
-        <v>0.917875</v>
+        <v>0.9660625</v>
       </c>
       <c r="G13">
-        <v>0.9385625</v>
+        <v>0.98796875</v>
       </c>
       <c r="H13">
-        <v>0.99465625</v>
+        <v>0.97915625</v>
       </c>
       <c r="I13">
-        <v>0.9113125</v>
+        <v>0.95490625</v>
       </c>
       <c r="J13">
-        <v>0.67865625</v>
+        <v>0.73934375</v>
       </c>
       <c r="K13">
-        <v>0.696375</v>
+        <v>0.64396875</v>
       </c>
       <c r="L13">
-        <v>0.434375</v>
+        <v>0.48128125</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1613,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.844</v>
+        <v>0.7625625</v>
       </c>
       <c r="D2">
-        <v>0.91190625</v>
+        <v>0.9080625</v>
       </c>
       <c r="E2">
-        <v>0.96828125</v>
+        <v>0.95740625</v>
       </c>
       <c r="F2">
-        <v>0.8345312499999999</v>
+        <v>0.80621875</v>
       </c>
       <c r="G2">
-        <v>0.8654062499999999</v>
+        <v>0.85946875</v>
       </c>
       <c r="H2">
-        <v>0.9176875</v>
+        <v>0.91671875</v>
       </c>
       <c r="I2">
-        <v>0.8270625</v>
+        <v>0.8120937500000001</v>
       </c>
       <c r="J2">
-        <v>0.60853125</v>
+        <v>0.6098125</v>
       </c>
       <c r="K2">
-        <v>0.68246875</v>
+        <v>0.6458125</v>
       </c>
       <c r="L2">
-        <v>0.39165625</v>
+        <v>0.39271875</v>
       </c>
       <c r="M2">
-        <v>0.93825</v>
+        <v>0.88028125</v>
       </c>
     </row>
     <row r="3">
@@ -1653,40 +1653,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.844</v>
+        <v>0.7625625</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09734374999999995</v>
+        <v>0.1594375</v>
       </c>
       <c r="E3">
-        <v>0.13884375</v>
+        <v>0.22390625</v>
       </c>
       <c r="F3">
-        <v>0.09590624999999997</v>
+        <v>0.1406875</v>
       </c>
       <c r="G3">
-        <v>0.0889375</v>
+        <v>0.1340625</v>
       </c>
       <c r="H3">
-        <v>0.100375</v>
+        <v>0.1693750000000001</v>
       </c>
       <c r="I3">
-        <v>0.10009375</v>
+        <v>0.14384375</v>
       </c>
       <c r="J3">
-        <v>0.29209375</v>
+        <v>0.29334375</v>
       </c>
       <c r="K3">
-        <v>0.338875</v>
+        <v>0.3941249999999999</v>
       </c>
       <c r="L3">
-        <v>0.5193749999999999</v>
+        <v>0.4916875000000001</v>
       </c>
       <c r="M3">
-        <v>0.114125</v>
+        <v>0.14546875</v>
       </c>
     </row>
     <row r="4">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.91190625</v>
+        <v>0.9080625</v>
       </c>
       <c r="C4">
-        <v>0.09734374999999995</v>
+        <v>0.1594375</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01078124999999996</v>
+        <v>0.01215624999999998</v>
       </c>
       <c r="F4">
-        <v>0.01778124999999997</v>
+        <v>0.02559374999999997</v>
       </c>
       <c r="G4">
-        <v>0.01084375000000004</v>
+        <v>0.01628125000000002</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02937500000000004</v>
+        <v>0.04303124999999997</v>
       </c>
       <c r="J4">
-        <v>0.2638125</v>
+        <v>0.2623124999999999</v>
       </c>
       <c r="K4">
-        <v>0.30534375</v>
+        <v>0.3535625</v>
       </c>
       <c r="L4">
-        <v>0.5214687499999999</v>
+        <v>0.52846875</v>
       </c>
       <c r="M4">
-        <v>0.004468750000000021</v>
+        <v>0.01175000000000004</v>
       </c>
     </row>
     <row r="5">
@@ -1739,40 +1739,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.96828125</v>
+        <v>0.95740625</v>
       </c>
       <c r="C5">
-        <v>0.13884375</v>
+        <v>0.22390625</v>
       </c>
       <c r="D5">
-        <v>0.01078124999999996</v>
+        <v>0.01215624999999998</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.25090625</v>
+        <v>0.2874687500000001</v>
       </c>
       <c r="G5">
-        <v>0.11290625</v>
+        <v>0.1216874999999999</v>
       </c>
       <c r="H5">
-        <v>0.00968749999999996</v>
+        <v>0.00924999999999998</v>
       </c>
       <c r="I5">
-        <v>0.21653125</v>
+        <v>0.218875</v>
       </c>
       <c r="J5">
-        <v>0.43759375</v>
+        <v>0.43340625</v>
       </c>
       <c r="K5">
-        <v>0.3045</v>
+        <v>0.3420625</v>
       </c>
       <c r="L5">
-        <v>0.62590625</v>
+        <v>0.6351875</v>
       </c>
       <c r="M5">
-        <v>0.02200000000000002</v>
+        <v>0.08256249999999998</v>
       </c>
     </row>
     <row r="6">
@@ -1782,40 +1782,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.8345312499999999</v>
+        <v>0.80621875</v>
       </c>
       <c r="C6">
-        <v>0.09590624999999997</v>
+        <v>0.1406875</v>
       </c>
       <c r="D6">
-        <v>0.01778124999999997</v>
+        <v>0.02559374999999997</v>
       </c>
       <c r="E6">
-        <v>0.25090625</v>
+        <v>0.2874687500000001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.004593749999999952</v>
+        <v>0.006812499999999999</v>
       </c>
       <c r="H6">
-        <v>0.02953125000000001</v>
+        <v>0.05118750000000005</v>
       </c>
       <c r="I6">
-        <v>0.001781249999999956</v>
+        <v>0.001968749999999964</v>
       </c>
       <c r="J6">
-        <v>0.1520625</v>
+        <v>0.1441875</v>
       </c>
       <c r="K6">
-        <v>0.33334375</v>
+        <v>0.38475</v>
       </c>
       <c r="L6">
-        <v>0.4455625</v>
+        <v>0.43465625</v>
       </c>
       <c r="M6">
-        <v>0.082125</v>
+        <v>0.03393749999999995</v>
       </c>
     </row>
     <row r="7">
@@ -1825,40 +1825,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8654062499999999</v>
+        <v>0.85946875</v>
       </c>
       <c r="C7">
-        <v>0.0889375</v>
+        <v>0.1340625</v>
       </c>
       <c r="D7">
-        <v>0.01084375000000004</v>
+        <v>0.01628125000000002</v>
       </c>
       <c r="E7">
-        <v>0.11290625</v>
+        <v>0.1216874999999999</v>
       </c>
       <c r="F7">
-        <v>0.004593749999999952</v>
+        <v>0.006812499999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01746875000000003</v>
+        <v>0.03446875000000005</v>
       </c>
       <c r="I7">
-        <v>0.01024999999999998</v>
+        <v>0.01406249999999998</v>
       </c>
       <c r="J7">
-        <v>0.22509375</v>
+        <v>0.2173125</v>
       </c>
       <c r="K7">
-        <v>0.31546875</v>
+        <v>0.35975</v>
       </c>
       <c r="L7">
-        <v>0.49371875</v>
+        <v>0.4929375</v>
       </c>
       <c r="M7">
-        <v>0.06143750000000003</v>
+        <v>0.01203125000000005</v>
       </c>
     </row>
     <row r="8">
@@ -1868,40 +1868,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9176875</v>
+        <v>0.91671875</v>
       </c>
       <c r="C8">
-        <v>0.100375</v>
+        <v>0.1693750000000001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.00968749999999996</v>
+        <v>0.00924999999999998</v>
       </c>
       <c r="F8">
-        <v>0.02953125000000001</v>
+        <v>0.05118750000000005</v>
       </c>
       <c r="G8">
-        <v>0.01746875000000003</v>
+        <v>0.03446875000000005</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03912499999999997</v>
+        <v>0.06621874999999999</v>
       </c>
       <c r="J8">
-        <v>0.2768125</v>
+        <v>0.28628125</v>
       </c>
       <c r="K8">
-        <v>0.30646875</v>
+        <v>0.3516875</v>
       </c>
       <c r="L8">
-        <v>0.5311874999999999</v>
+        <v>0.545875</v>
       </c>
       <c r="M8">
-        <v>0.00534374999999998</v>
+        <v>0.02084375000000005</v>
       </c>
     </row>
     <row r="9">
@@ -1911,40 +1911,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.8270625</v>
+        <v>0.8120937500000001</v>
       </c>
       <c r="C9">
-        <v>0.10009375</v>
+        <v>0.14384375</v>
       </c>
       <c r="D9">
-        <v>0.02937500000000004</v>
+        <v>0.04303124999999997</v>
       </c>
       <c r="E9">
-        <v>0.21653125</v>
+        <v>0.218875</v>
       </c>
       <c r="F9">
-        <v>0.001781249999999956</v>
+        <v>0.001968749999999964</v>
       </c>
       <c r="G9">
-        <v>0.01024999999999998</v>
+        <v>0.01406249999999998</v>
       </c>
       <c r="H9">
-        <v>0.03912499999999997</v>
+        <v>0.06621874999999999</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.168875</v>
+        <v>0.16809375</v>
       </c>
       <c r="K9">
-        <v>0.33315625</v>
+        <v>0.3765937499999999</v>
       </c>
       <c r="L9">
-        <v>0.4518125</v>
+        <v>0.446625</v>
       </c>
       <c r="M9">
-        <v>0.08868750000000003</v>
+        <v>0.04509375000000004</v>
       </c>
     </row>
     <row r="10">
@@ -1954,40 +1954,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.60853125</v>
+        <v>0.6098125</v>
       </c>
       <c r="C10">
-        <v>0.29209375</v>
+        <v>0.29334375</v>
       </c>
       <c r="D10">
-        <v>0.2638125</v>
+        <v>0.2623124999999999</v>
       </c>
       <c r="E10">
-        <v>0.43759375</v>
+        <v>0.43340625</v>
       </c>
       <c r="F10">
-        <v>0.1520625</v>
+        <v>0.1441875</v>
       </c>
       <c r="G10">
-        <v>0.22509375</v>
+        <v>0.2173125</v>
       </c>
       <c r="H10">
-        <v>0.2768125</v>
+        <v>0.28628125</v>
       </c>
       <c r="I10">
-        <v>0.168875</v>
+        <v>0.16809375</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.414375</v>
+        <v>0.438125</v>
       </c>
       <c r="L10">
-        <v>0.416</v>
+        <v>0.41209375</v>
       </c>
       <c r="M10">
-        <v>0.32134375</v>
+        <v>0.26065625</v>
       </c>
     </row>
     <row r="11">
@@ -1997,40 +1997,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.68246875</v>
+        <v>0.6458125</v>
       </c>
       <c r="C11">
-        <v>0.338875</v>
+        <v>0.3941249999999999</v>
       </c>
       <c r="D11">
-        <v>0.30534375</v>
+        <v>0.3535625</v>
       </c>
       <c r="E11">
-        <v>0.3045</v>
+        <v>0.3420625</v>
       </c>
       <c r="F11">
-        <v>0.33334375</v>
+        <v>0.38475</v>
       </c>
       <c r="G11">
-        <v>0.31546875</v>
+        <v>0.35975</v>
       </c>
       <c r="H11">
-        <v>0.30646875</v>
+        <v>0.3516875</v>
       </c>
       <c r="I11">
-        <v>0.33315625</v>
+        <v>0.3765937499999999</v>
       </c>
       <c r="J11">
-        <v>0.414375</v>
+        <v>0.438125</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5120312499999999</v>
+        <v>0.51278125</v>
       </c>
       <c r="M11">
-        <v>0.303625</v>
+        <v>0.35603125</v>
       </c>
     </row>
     <row r="12">
@@ -2040,40 +2040,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.39165625</v>
+        <v>0.39271875</v>
       </c>
       <c r="C12">
-        <v>0.5193749999999999</v>
+        <v>0.4916875000000001</v>
       </c>
       <c r="D12">
-        <v>0.5214687499999999</v>
+        <v>0.52846875</v>
       </c>
       <c r="E12">
-        <v>0.62590625</v>
+        <v>0.6351875</v>
       </c>
       <c r="F12">
-        <v>0.4455625</v>
+        <v>0.43465625</v>
       </c>
       <c r="G12">
-        <v>0.49371875</v>
+        <v>0.4929375</v>
       </c>
       <c r="H12">
-        <v>0.5311874999999999</v>
+        <v>0.545875</v>
       </c>
       <c r="I12">
-        <v>0.4518125</v>
+        <v>0.446625</v>
       </c>
       <c r="J12">
-        <v>0.416</v>
+        <v>0.41209375</v>
       </c>
       <c r="K12">
-        <v>0.5120312499999999</v>
+        <v>0.51278125</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.565625</v>
+        <v>0.51871875</v>
       </c>
     </row>
     <row r="13">
@@ -2083,37 +2083,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.93825</v>
+        <v>0.88028125</v>
       </c>
       <c r="C13">
-        <v>0.114125</v>
+        <v>0.14546875</v>
       </c>
       <c r="D13">
-        <v>0.004468750000000021</v>
+        <v>0.01175000000000004</v>
       </c>
       <c r="E13">
-        <v>0.02200000000000002</v>
+        <v>0.08256249999999998</v>
       </c>
       <c r="F13">
-        <v>0.082125</v>
+        <v>0.03393749999999995</v>
       </c>
       <c r="G13">
-        <v>0.06143750000000003</v>
+        <v>0.01203125000000005</v>
       </c>
       <c r="H13">
-        <v>0.00534374999999998</v>
+        <v>0.02084375000000005</v>
       </c>
       <c r="I13">
-        <v>0.08868750000000003</v>
+        <v>0.04509375000000004</v>
       </c>
       <c r="J13">
-        <v>0.32134375</v>
+        <v>0.26065625</v>
       </c>
       <c r="K13">
-        <v>0.303625</v>
+        <v>0.35603125</v>
       </c>
       <c r="L13">
-        <v>0.565625</v>
+        <v>0.51871875</v>
       </c>
       <c r="M13">
         <v>0</v>

--- a/Panels/parameter_estimates_Omega_Abundance_year.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_year.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -489,7 +489,7 @@
         <v>0.6966241224194505</v>
       </c>
       <c r="H3">
-        <v>0.6257441245420285</v>
+        <v>0.6257441245420286</v>
       </c>
       <c r="I3">
         <v>0.5978091670819844</v>
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -578,7 +578,7 @@
         <v>0.8746474862674289</v>
       </c>
       <c r="I5">
-        <v>0.3818787843660253</v>
+        <v>0.3818787843660254</v>
       </c>
       <c r="J5">
         <v>0.1399592825917317</v>
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -682,14 +682,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
         <v>-0.8061194045143951</v>
       </c>
       <c r="C8">
-        <v>0.6257441245420285</v>
+        <v>0.6257441245420286</v>
       </c>
       <c r="D8">
         <v>0.9975075667717772</v>
@@ -713,7 +713,7 @@
         <v>0.3639545243475186</v>
       </c>
       <c r="K8">
-        <v>0.2881234356303738</v>
+        <v>0.2881234356303739</v>
       </c>
       <c r="L8">
         <v>-0.1034214358551055</v>
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -738,7 +738,7 @@
         <v>0.6899436301868895</v>
       </c>
       <c r="E9">
-        <v>0.3818787843660253</v>
+        <v>0.3818787843660254</v>
       </c>
       <c r="F9">
         <v>0.8857979565169948</v>
@@ -756,7 +756,7 @@
         <v>0.5604356004376135</v>
       </c>
       <c r="K9">
-        <v>0.1858880121523191</v>
+        <v>0.1858880121523192</v>
       </c>
       <c r="L9">
         <v>0.1215624509034098</v>
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -833,10 +833,10 @@
         <v>0.2609492386575604</v>
       </c>
       <c r="H11">
-        <v>0.2881234356303738</v>
+        <v>0.2881234356303739</v>
       </c>
       <c r="I11">
-        <v>0.1858880121523191</v>
+        <v>0.1858880121523192</v>
       </c>
       <c r="J11">
         <v>0.1095345970178467</v>
@@ -854,7 +854,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -879,7 +879,7 @@
         <v>-0.1034214358551055</v>
       </c>
       <c r="I12">
-        <v>0.1215624509034098</v>
+        <v>0.1215624509034099</v>
       </c>
       <c r="J12">
         <v>0.1558609204711422</v>
@@ -897,7 +897,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1080,7 +1080,7 @@
         <v>0.8659375</v>
       </c>
       <c r="H3">
-        <v>0.8306249999999999</v>
+        <v>0.830625</v>
       </c>
       <c r="I3">
         <v>0.85615625</v>
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,7 +1144,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7125312499999999</v>
+        <v>0.71253125</v>
       </c>
       <c r="G5">
         <v>0.8783125000000001</v>
@@ -1187,7 +1187,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1200,7 +1200,7 @@
         <v>0.97440625</v>
       </c>
       <c r="E6">
-        <v>0.7125312499999999</v>
+        <v>0.71253125</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0.9931875</v>
       </c>
       <c r="H6">
-        <v>0.9488124999999999</v>
+        <v>0.9488125</v>
       </c>
       <c r="I6">
         <v>0.99803125</v>
@@ -1224,13 +1224,13 @@
         <v>0.56534375</v>
       </c>
       <c r="M6">
-        <v>0.9660625</v>
+        <v>0.9660625000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1273,14 +1273,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
         <v>0.08328125</v>
       </c>
       <c r="C8">
-        <v>0.8306249999999999</v>
+        <v>0.830625</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0.99075</v>
       </c>
       <c r="F8">
-        <v>0.9488124999999999</v>
+        <v>0.9488125</v>
       </c>
       <c r="G8">
         <v>0.96553125</v>
@@ -1316,7 +1316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1445,7 +1445,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1504,7 +1504,7 @@
         <v>0.9174375</v>
       </c>
       <c r="F13">
-        <v>0.9660625</v>
+        <v>0.9660625000000001</v>
       </c>
       <c r="G13">
         <v>0.98796875</v>
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1674,13 +1674,13 @@
         <v>0.1693750000000001</v>
       </c>
       <c r="I3">
-        <v>0.14384375</v>
+        <v>0.1438437500000001</v>
       </c>
       <c r="J3">
         <v>0.29334375</v>
       </c>
       <c r="K3">
-        <v>0.3941249999999999</v>
+        <v>0.394125</v>
       </c>
       <c r="L3">
         <v>0.4916875000000001</v>
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1711,7 +1711,7 @@
         <v>0.02559374999999997</v>
       </c>
       <c r="G4">
-        <v>0.01628125000000002</v>
+        <v>0.01628125000000003</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0.04303124999999997</v>
       </c>
       <c r="J4">
-        <v>0.2623124999999999</v>
+        <v>0.2623125</v>
       </c>
       <c r="K4">
         <v>0.3535625</v>
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1754,10 +1754,10 @@
         <v>0.2874687500000001</v>
       </c>
       <c r="G5">
-        <v>0.1216874999999999</v>
+        <v>0.1216875</v>
       </c>
       <c r="H5">
-        <v>0.00924999999999998</v>
+        <v>0.009249999999999981</v>
       </c>
       <c r="I5">
         <v>0.218875</v>
@@ -1766,7 +1766,7 @@
         <v>0.43340625</v>
       </c>
       <c r="K5">
-        <v>0.3420625</v>
+        <v>0.3420625000000001</v>
       </c>
       <c r="L5">
         <v>0.6351875</v>
@@ -1778,7 +1778,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1831,10 +1831,10 @@
         <v>0.1340625</v>
       </c>
       <c r="D7">
-        <v>0.01628125000000002</v>
+        <v>0.01628125000000003</v>
       </c>
       <c r="E7">
-        <v>0.1216874999999999</v>
+        <v>0.1216875</v>
       </c>
       <c r="F7">
         <v>0.006812499999999999</v>
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.00924999999999998</v>
+        <v>0.009249999999999981</v>
       </c>
       <c r="F8">
         <v>0.05118750000000005</v>
@@ -1907,14 +1907,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
         <v>0.8120937500000001</v>
       </c>
       <c r="C9">
-        <v>0.14384375</v>
+        <v>0.1438437500000001</v>
       </c>
       <c r="D9">
         <v>0.04303124999999997</v>
@@ -1938,10 +1938,10 @@
         <v>0.16809375</v>
       </c>
       <c r="K9">
-        <v>0.3765937499999999</v>
+        <v>0.37659375</v>
       </c>
       <c r="L9">
-        <v>0.446625</v>
+        <v>0.4466250000000001</v>
       </c>
       <c r="M9">
         <v>0.04509375000000004</v>
@@ -1950,7 +1950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1960,7 +1960,7 @@
         <v>0.29334375</v>
       </c>
       <c r="D10">
-        <v>0.2623124999999999</v>
+        <v>0.2623125</v>
       </c>
       <c r="E10">
         <v>0.43340625</v>
@@ -1993,20 +1993,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
         <v>0.6458125</v>
       </c>
       <c r="C11">
-        <v>0.3941249999999999</v>
+        <v>0.394125</v>
       </c>
       <c r="D11">
         <v>0.3535625</v>
       </c>
       <c r="E11">
-        <v>0.3420625</v>
+        <v>0.3420625000000001</v>
       </c>
       <c r="F11">
         <v>0.38475</v>
@@ -2018,7 +2018,7 @@
         <v>0.3516875</v>
       </c>
       <c r="I11">
-        <v>0.3765937499999999</v>
+        <v>0.37659375</v>
       </c>
       <c r="J11">
         <v>0.438125</v>
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2061,7 +2061,7 @@
         <v>0.545875</v>
       </c>
       <c r="I12">
-        <v>0.446625</v>
+        <v>0.4466250000000001</v>
       </c>
       <c r="J12">
         <v>0.41209375</v>
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
